--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124022a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124022a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>total</t>
   </si>
@@ -22,9 +22,6 @@
     <t>grupos de idade</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>10 a 15 anos</t>
   </si>
   <si>
@@ -43,16 +40,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,27 +516,27 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -568,770 +559,760 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3.98</v>
+      </c>
+      <c r="D5">
+        <v>1.67</v>
+      </c>
+      <c r="E5">
+        <v>1.81</v>
+      </c>
+      <c r="F5">
+        <v>1.71</v>
+      </c>
+      <c r="G5">
+        <v>2.28</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.98</v>
+        <v>21.06</v>
       </c>
       <c r="D6">
-        <v>1.67</v>
+        <v>8.84</v>
       </c>
       <c r="E6">
-        <v>1.81</v>
+        <v>7.88</v>
       </c>
       <c r="F6">
-        <v>1.71</v>
+        <v>7.96</v>
       </c>
       <c r="G6">
-        <v>2.28</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>21.06</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D7">
-        <v>8.84</v>
+        <v>3.42</v>
       </c>
       <c r="E7">
-        <v>7.88</v>
+        <v>3.57</v>
       </c>
       <c r="F7">
-        <v>7.96</v>
+        <v>3.67</v>
       </c>
       <c r="G7">
-        <v>9.58</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>27.32</v>
+      </c>
+      <c r="D8">
+        <v>11.56</v>
+      </c>
+      <c r="E8">
+        <v>17.12</v>
+      </c>
+      <c r="F8">
+        <v>12.01</v>
+      </c>
+      <c r="G8">
+        <v>14.6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.109999999999999</v>
+        <v>42.51</v>
       </c>
       <c r="D9">
-        <v>3.42</v>
+        <v>20.17</v>
       </c>
       <c r="E9">
-        <v>3.57</v>
+        <v>21.25</v>
       </c>
       <c r="F9">
-        <v>3.67</v>
+        <v>16.55</v>
       </c>
       <c r="G9">
-        <v>5.8</v>
+        <v>25.47</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>27.32</v>
+        <v>21.7</v>
       </c>
       <c r="D10">
-        <v>11.56</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E10">
-        <v>17.12</v>
+        <v>9.91</v>
       </c>
       <c r="F10">
-        <v>12.01</v>
+        <v>9.42</v>
       </c>
       <c r="G10">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>42.51</v>
+        <v>34.05</v>
       </c>
       <c r="D11">
-        <v>20.17</v>
+        <v>16.93</v>
       </c>
       <c r="E11">
-        <v>21.25</v>
+        <v>24.89</v>
       </c>
       <c r="F11">
-        <v>16.55</v>
+        <v>23.28</v>
       </c>
       <c r="G11">
-        <v>25.47</v>
+        <v>35.17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>21.7</v>
+        <v>10.2</v>
       </c>
       <c r="D12">
-        <v>8.279999999999999</v>
+        <v>4.34</v>
       </c>
       <c r="E12">
-        <v>9.91</v>
+        <v>4.22</v>
       </c>
       <c r="F12">
-        <v>9.42</v>
+        <v>4.57</v>
       </c>
       <c r="G12">
-        <v>15.3</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>34.05</v>
+        <v>40.45</v>
       </c>
       <c r="D13">
-        <v>16.93</v>
+        <v>13.38</v>
       </c>
       <c r="E13">
-        <v>24.89</v>
+        <v>16.77</v>
       </c>
       <c r="F13">
-        <v>23.28</v>
+        <v>20.63</v>
       </c>
       <c r="G13">
-        <v>35.17</v>
+        <v>25.82</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.2</v>
+        <v>37.44</v>
       </c>
       <c r="D14">
-        <v>4.34</v>
+        <v>21.06</v>
       </c>
       <c r="E14">
-        <v>4.22</v>
+        <v>17.7</v>
       </c>
       <c r="F14">
-        <v>4.57</v>
+        <v>21.02</v>
       </c>
       <c r="G14">
-        <v>7.76</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>40.45</v>
+        <v>5.68</v>
       </c>
       <c r="D15">
-        <v>13.38</v>
+        <v>2.45</v>
       </c>
       <c r="E15">
-        <v>16.77</v>
+        <v>2.77</v>
       </c>
       <c r="F15">
-        <v>20.63</v>
+        <v>2.81</v>
       </c>
       <c r="G15">
-        <v>25.82</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>37.44</v>
+        <v>20.62</v>
       </c>
       <c r="D16">
-        <v>21.06</v>
+        <v>13.64</v>
       </c>
       <c r="E16">
-        <v>17.7</v>
+        <v>11.28</v>
       </c>
       <c r="F16">
-        <v>21.02</v>
+        <v>14.84</v>
       </c>
       <c r="G16">
-        <v>18.87</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.68</v>
+        <v>34.15</v>
       </c>
       <c r="D17">
-        <v>2.45</v>
+        <v>13.86</v>
       </c>
       <c r="E17">
-        <v>2.77</v>
+        <v>16.36</v>
       </c>
       <c r="F17">
-        <v>2.81</v>
+        <v>11.7</v>
       </c>
       <c r="G17">
-        <v>3.54</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>20.62</v>
+        <v>10.7</v>
       </c>
       <c r="D18">
-        <v>13.64</v>
+        <v>3.82</v>
       </c>
       <c r="E18">
-        <v>11.28</v>
+        <v>4.51</v>
       </c>
       <c r="F18">
-        <v>14.84</v>
+        <v>5.23</v>
       </c>
       <c r="G18">
-        <v>14.45</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>34.15</v>
+        <v>19.99</v>
       </c>
       <c r="D19">
-        <v>13.86</v>
+        <v>8.06</v>
       </c>
       <c r="E19">
-        <v>16.36</v>
+        <v>11.24</v>
       </c>
       <c r="F19">
-        <v>11.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G19">
-        <v>18.75</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.7</v>
+        <v>19.52</v>
       </c>
       <c r="D20">
-        <v>3.82</v>
+        <v>9.01</v>
       </c>
       <c r="E20">
-        <v>4.51</v>
+        <v>12.92</v>
       </c>
       <c r="F20">
-        <v>5.23</v>
+        <v>12.19</v>
       </c>
       <c r="G20">
-        <v>8.390000000000001</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>19.99</v>
+        <v>14.8</v>
       </c>
       <c r="D21">
-        <v>8.06</v>
+        <v>5.11</v>
       </c>
       <c r="E21">
-        <v>11.24</v>
+        <v>4.86</v>
       </c>
       <c r="F21">
-        <v>9.300000000000001</v>
+        <v>6.02</v>
       </c>
       <c r="G21">
-        <v>14.93</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>19.52</v>
+        <v>25.11</v>
       </c>
       <c r="D22">
-        <v>9.01</v>
+        <v>8.74</v>
       </c>
       <c r="E22">
-        <v>12.92</v>
+        <v>16.22</v>
       </c>
       <c r="F22">
-        <v>12.19</v>
+        <v>13.72</v>
       </c>
       <c r="G22">
-        <v>13.06</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.8</v>
+        <v>20.65</v>
       </c>
       <c r="D23">
-        <v>5.11</v>
+        <v>9.07</v>
       </c>
       <c r="E23">
-        <v>4.86</v>
+        <v>14.99</v>
       </c>
       <c r="F23">
-        <v>6.02</v>
+        <v>12.52</v>
       </c>
       <c r="G23">
-        <v>6.83</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>25.11</v>
+        <v>10.41</v>
       </c>
       <c r="D24">
-        <v>8.74</v>
+        <v>4.27</v>
       </c>
       <c r="E24">
-        <v>16.22</v>
+        <v>4.65</v>
       </c>
       <c r="F24">
-        <v>13.72</v>
+        <v>4.64</v>
       </c>
       <c r="G24">
-        <v>16.52</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>20.65</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D25">
-        <v>9.07</v>
+        <v>3.28</v>
       </c>
       <c r="E25">
-        <v>14.99</v>
+        <v>3.45</v>
       </c>
       <c r="F25">
-        <v>12.52</v>
+        <v>3.05</v>
       </c>
       <c r="G25">
-        <v>12.85</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>10.41</v>
+        <v>17.09</v>
       </c>
       <c r="D26">
-        <v>4.27</v>
+        <v>6.08</v>
       </c>
       <c r="E26">
-        <v>4.65</v>
+        <v>6.35</v>
       </c>
       <c r="F26">
-        <v>4.64</v>
+        <v>6.45</v>
       </c>
       <c r="G26">
-        <v>6.5</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>9.039999999999999</v>
+        <v>21.64</v>
       </c>
       <c r="D27">
-        <v>3.28</v>
+        <v>11.87</v>
       </c>
       <c r="E27">
-        <v>3.45</v>
+        <v>14.36</v>
       </c>
       <c r="F27">
-        <v>3.05</v>
+        <v>10.72</v>
       </c>
       <c r="G27">
-        <v>3.73</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>17.09</v>
+        <v>17.77</v>
       </c>
       <c r="D28">
-        <v>6.08</v>
+        <v>6.2</v>
       </c>
       <c r="E28">
-        <v>6.35</v>
+        <v>5.53</v>
       </c>
       <c r="F28">
-        <v>6.45</v>
+        <v>5.86</v>
       </c>
       <c r="G28">
-        <v>7.37</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>21.64</v>
+        <v>14.41</v>
       </c>
       <c r="D29">
-        <v>11.87</v>
+        <v>4.94</v>
       </c>
       <c r="E29">
-        <v>14.36</v>
+        <v>5.32</v>
       </c>
       <c r="F29">
-        <v>10.72</v>
+        <v>4.32</v>
       </c>
       <c r="G29">
-        <v>15.27</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>17.77</v>
+        <v>11.43</v>
       </c>
       <c r="D30">
-        <v>6.2</v>
+        <v>4.81</v>
       </c>
       <c r="E30">
-        <v>5.53</v>
+        <v>5.47</v>
       </c>
       <c r="F30">
-        <v>5.86</v>
+        <v>5.22</v>
       </c>
       <c r="G30">
-        <v>6.85</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>14.41</v>
+        <v>16.36</v>
       </c>
       <c r="D31">
-        <v>4.94</v>
+        <v>6.49</v>
       </c>
       <c r="E31">
-        <v>5.32</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F31">
-        <v>4.32</v>
+        <v>7.56</v>
       </c>
       <c r="G31">
-        <v>5.5</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>11.43</v>
+        <v>33.45</v>
       </c>
       <c r="D32">
-        <v>4.81</v>
+        <v>15.75</v>
       </c>
       <c r="E32">
-        <v>5.47</v>
+        <v>20.31</v>
       </c>
       <c r="F32">
-        <v>5.22</v>
+        <v>22.65</v>
       </c>
       <c r="G32">
-        <v>4.79</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>16.36</v>
+        <v>16.66</v>
       </c>
       <c r="D33">
-        <v>6.49</v>
+        <v>8.02</v>
       </c>
       <c r="E33">
-        <v>8.199999999999999</v>
+        <v>7.61</v>
       </c>
       <c r="F33">
-        <v>7.56</v>
+        <v>7.05</v>
       </c>
       <c r="G33">
-        <v>7.44</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>33.45</v>
+        <v>9.68</v>
       </c>
       <c r="D34">
-        <v>15.75</v>
+        <v>4.74</v>
       </c>
       <c r="E34">
-        <v>20.31</v>
+        <v>4.86</v>
       </c>
       <c r="F34">
-        <v>22.65</v>
+        <v>4.59</v>
       </c>
       <c r="G34">
-        <v>18.04</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>16.66</v>
+        <v>25.37</v>
       </c>
       <c r="D35">
-        <v>8.02</v>
+        <v>15.56</v>
       </c>
       <c r="E35">
-        <v>7.61</v>
+        <v>12.73</v>
       </c>
       <c r="F35">
-        <v>7.05</v>
+        <v>16.02</v>
       </c>
       <c r="G35">
-        <v>6.22</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>9.68</v>
+        <v>40.05</v>
       </c>
       <c r="D36">
-        <v>4.74</v>
+        <v>14.33</v>
       </c>
       <c r="E36">
-        <v>4.86</v>
+        <v>11.02</v>
       </c>
       <c r="F36">
-        <v>4.59</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="G36">
-        <v>7.08</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>25.37</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>15.56</v>
+        <v>8.59</v>
       </c>
       <c r="E37">
-        <v>12.73</v>
+        <v>7.84</v>
       </c>
       <c r="F37">
-        <v>16.02</v>
+        <v>7.4</v>
       </c>
       <c r="G37">
-        <v>15.56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>40.05</v>
-      </c>
-      <c r="D38">
-        <v>14.33</v>
-      </c>
-      <c r="E38">
-        <v>11.02</v>
-      </c>
-      <c r="F38">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="G38">
-        <v>13.12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>18</v>
-      </c>
-      <c r="D39">
-        <v>8.59</v>
-      </c>
-      <c r="E39">
-        <v>7.84</v>
-      </c>
-      <c r="F39">
-        <v>7.4</v>
-      </c>
-      <c r="G39">
         <v>12.81</v>
       </c>
     </row>
